--- a/pred_ohlcv/54_21/2020-01-23 AMO ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-23 AMO ohlcv.xlsx
@@ -9960,7 +9960,7 @@
         <v>-69835345.50982288</v>
       </c>
       <c r="H368">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -9986,7 +9986,7 @@
         <v>-68704015.13282287</v>
       </c>
       <c r="H369">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -10012,7 +10012,7 @@
         <v>-70182851.76682287</v>
       </c>
       <c r="H370">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -10038,7 +10038,7 @@
         <v>-69212560.87482287</v>
       </c>
       <c r="H371">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -10064,7 +10064,7 @@
         <v>-69212560.87482287</v>
       </c>
       <c r="H372">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -10090,7 +10090,7 @@
         <v>-71895097.18552287</v>
       </c>
       <c r="H373">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -10116,7 +10116,7 @@
         <v>-70543396.98652287</v>
       </c>
       <c r="H374">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -10142,7 +10142,7 @@
         <v>-69293405.93652287</v>
       </c>
       <c r="H375">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -10168,7 +10168,7 @@
         <v>-70450163.60052288</v>
       </c>
       <c r="H376">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -10194,7 +10194,7 @@
         <v>-70025054.34347083</v>
       </c>
       <c r="H377">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -10324,7 +10324,7 @@
         <v>-71264851.49247083</v>
       </c>
       <c r="H382">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -11208,7 +11208,7 @@
         <v>-63307118.17357083</v>
       </c>
       <c r="H416">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -11260,7 +11260,7 @@
         <v>-61832619.81787083</v>
       </c>
       <c r="H418">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -11286,7 +11286,7 @@
         <v>-63252126.11587083</v>
       </c>
       <c r="H419">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -11312,7 +11312,7 @@
         <v>-64578399.02787083</v>
       </c>
       <c r="H420">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -14900,7 +14900,7 @@
         <v>-56069258.07187089</v>
       </c>
       <c r="H558">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="559" spans="1:8">
@@ -14952,7 +14952,7 @@
         <v>-55147599.75487088</v>
       </c>
       <c r="H560">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="561" spans="1:8">
@@ -15030,7 +15030,7 @@
         <v>-57398640.38717089</v>
       </c>
       <c r="H563">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="564" spans="1:8">
@@ -15056,7 +15056,7 @@
         <v>-58835098.21017089</v>
       </c>
       <c r="H564">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="565" spans="1:8">
@@ -15082,7 +15082,7 @@
         <v>-59932525.53717089</v>
       </c>
       <c r="H565">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="566" spans="1:8">
@@ -15160,7 +15160,7 @@
         <v>-60826534.5671709</v>
       </c>
       <c r="H568">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="569" spans="1:8">
@@ -15212,7 +15212,7 @@
         <v>-61046904.38917089</v>
       </c>
       <c r="H570">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="571" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-23 AMO ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-23 AMO ohlcv.xlsx
@@ -9986,7 +9986,7 @@
         <v>-68704015.13282287</v>
       </c>
       <c r="H369">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -10012,7 +10012,7 @@
         <v>-70182851.76682287</v>
       </c>
       <c r="H370">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -10038,7 +10038,7 @@
         <v>-69212560.87482287</v>
       </c>
       <c r="H371">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -10064,7 +10064,7 @@
         <v>-69212560.87482287</v>
       </c>
       <c r="H372">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -10116,7 +10116,7 @@
         <v>-70543396.98652287</v>
       </c>
       <c r="H374">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -10168,7 +10168,7 @@
         <v>-70450163.60052288</v>
       </c>
       <c r="H376">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -10194,7 +10194,7 @@
         <v>-70025054.34347083</v>
       </c>
       <c r="H377">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -10324,7 +10324,7 @@
         <v>-71264851.49247083</v>
       </c>
       <c r="H382">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -11208,7 +11208,7 @@
         <v>-63307118.17357083</v>
       </c>
       <c r="H416">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -11260,7 +11260,7 @@
         <v>-61832619.81787083</v>
       </c>
       <c r="H418">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -11286,7 +11286,7 @@
         <v>-63252126.11587083</v>
       </c>
       <c r="H419">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -11312,7 +11312,7 @@
         <v>-64578399.02787083</v>
       </c>
       <c r="H420">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -14068,7 +14068,7 @@
         <v>-54603195.45597088</v>
       </c>
       <c r="H526">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="527" spans="1:8">
@@ -14094,7 +14094,7 @@
         <v>-53678701.67297088</v>
       </c>
       <c r="H527">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="528" spans="1:8">
@@ -14120,7 +14120,7 @@
         <v>-54808825.28697088</v>
       </c>
       <c r="H528">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="529" spans="1:8">
@@ -14146,7 +14146,7 @@
         <v>-54846925.28697088</v>
       </c>
       <c r="H529">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="530" spans="1:8">
@@ -14198,7 +14198,7 @@
         <v>-54582046.50887088</v>
       </c>
       <c r="H531">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="532" spans="1:8">
@@ -14822,7 +14822,7 @@
         <v>-57124306.58787089</v>
       </c>
       <c r="H555">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="556" spans="1:8">
@@ -14952,7 +14952,7 @@
         <v>-55147599.75487088</v>
       </c>
       <c r="H560">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="561" spans="1:8">
@@ -15160,7 +15160,7 @@
         <v>-60826534.5671709</v>
       </c>
       <c r="H568">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="569" spans="1:8">
@@ -15212,7 +15212,7 @@
         <v>-61046904.38917089</v>
       </c>
       <c r="H570">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="571" spans="1:8">
@@ -15602,7 +15602,7 @@
         <v>-62813526.9251709</v>
       </c>
       <c r="H585">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="586" spans="1:8">
